--- a/biology/Médecine/Carl-Herman_Hjortsjö/Carl-Herman_Hjortsjö.xlsx
+++ b/biology/Médecine/Carl-Herman_Hjortsjö/Carl-Herman_Hjortsjö.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carl-Herman_Hjortsj%C3%B6</t>
+          <t>Carl-Herman_Hjortsjö</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl-Herman Hjortsjö né le 8 décembre 1914 à Malmö en Suède et mort le 3 juillet 1978 à Varberg, est un anatomiste suédois connu pour ses travaux sur l'expression faciale. Ses travaux ont influencé Freitas-Magalhães and Paul Ekman dans ses recherches.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carl-Herman_Hjortsj%C3%B6</t>
+          <t>Carl-Herman_Hjortsjö</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carl-Herman Hjortsjö est le fils du médecin Herold Hirschlaff. Il étudie à l'université de Lund et en sort diplômé en 1945. Il y enseigne l'anatomie à partir de 1948[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl-Herman Hjortsjö est le fils du médecin Herold Hirschlaff. Il étudie à l'université de Lund et en sort diplômé en 1945. Il y enseigne l'anatomie à partir de 1948,.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carl-Herman_Hjortsj%C3%B6</t>
+          <t>Carl-Herman_Hjortsjö</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
